--- a/Output_testing/R1_201907/Country/HKD/MN/COSTA RICA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/COSTA RICA_201907_HKD_MN.xlsx
@@ -553,8 +553,10 @@
       <c r="F7" s="8" t="n">
         <v>1.137821</v>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0.344965</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>-36.6349188587299</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/COSTA RICA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/COSTA RICA_201907_HKD_MN.xlsx
@@ -812,136 +812,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>803.198979</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>71.23160892545468</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>625.2777579999999</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>73.22921621130797</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>1050.70211</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>80.67447927647821</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>584.350992</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>78.81281194271446</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>5.706405776331613</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>102.180367</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>9.06185407639</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>36.480373</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>4.272387891152466</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>46.350741</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>3.558879209116567</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>29.500841</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>3.978848783891378</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>4.9426993623223</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>EQUIPMENT FOR DISTRIBUTING ELECTRICITY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>24.327644</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>2.157494305636666</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>21.067547</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>2.467319418556533</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>10.837371</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>0.8321095521079765</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>16.031159</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>2.162160647946251</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>167.4608439272759</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>7.282793</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0.6458736582395965</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>6.581912</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0.7708386405322968</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>14.607811</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>1.121609573806043</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>15.284158</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>2.061410841511389</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>83.7616010033924</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>36.16717</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>3.207481305053348</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>25.981287</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>3.042790597984208</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>29.745972</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>2.283940213723089</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>15.263064</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>2.058565843423117</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>16.21698731471357</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>8.346018000000001</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0.7401656448828796</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>17.443635</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>2.042906056681036</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>16.678024</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>1.280563623842543</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>9.361081</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.262551320240623</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>20.06550253346151</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>2.7582</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.2446106492600374</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>2.226296</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.2607319851834072</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>2.418431</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>0.1856907488185138</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>6.485536</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.8747197080409931</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>382.6599846543926</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>4.498517</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.3989504619234702</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>4.453797</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.5216050935787081</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>11.063922</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.849504476683283</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>5.911644</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.7973175252935591</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-25.35693704604764</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>2.988343</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.2650208547029541</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>9.340386000000001</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.093896491822877</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>4.853913</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.3726906989159164</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>5.852315</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.7893156815664772</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>63.063733534988</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD TYPE, ELECTRICAL AND NON-ELECTRICAL EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>7.211547</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.6395552149370149</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>10.144817</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.18810718598622</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>11.848815</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.9097697349901811</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>5.132556</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.692240068642599</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-11.88858512551341</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>128.628288</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>11.40738490351935</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>94.865978</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>11.11020042721428</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>103.290029</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>7.930762891517684</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>48.268277</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>6.510057636729143</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-5.723375478331294</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -973,136 +1270,573 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>14.65660911765003</v>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>8.363543986445556</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>17.58730063867691</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>54.01301581319844</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>645.304</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>1.238878</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>56.81576579510006</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>0.891136</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>64.49622816166035</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>0.6259</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>55.00865250333752</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>39.44574087226241</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-53.32370586600899</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>062</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>SUGAR CONFECTIONERY</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>0.6882768222963533</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>1.641761122453928</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>0.8933742653721455</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>5.893351499427478</v>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>1.109415285725685</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>1.506491701810902</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>2.034502790860777</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>0.647891815111678</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-90.34515529828502</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>0.577607</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>26.48943966525385</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>21.24578470603021</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>3.230385095722438</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>23.99197502762927</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0.240493313974019</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>LIVE ANIMALS OTHER THAN ANIMALS OF DIVISION 03</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>MEAT OF BOVINE ANIMALS, FRESH, CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1134,136 +1868,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>803.198979</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>71.3696227794667</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>625.2777579999999</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>73.34790475172196</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>1050.70211</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>80.74502103200309</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>584.350992</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>78.84949765891402</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>5.706405776331613</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>102.180367</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>9.079411750917412</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>36.480373</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>4.279312497329049</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>46.350741</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>3.561991092693178</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>29.500841</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>3.980700854813462</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>4.9426993623223</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>EQUIPMENT FOR DISTRIBUTING ELECTRICITY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>24.327644</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>2.161674529958729</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>21.067547</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>2.471318403602044</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>10.837371</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>0.8328371486059168</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>16.031159</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>2.16316708852302</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>167.4608439272759</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>7.282793</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>0.6471250621335023</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>6.581912</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.7720880013458207</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>14.607811</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>1.122590309090106</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>15.284158</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>2.062370385159664</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>83.7616010033924</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>36.16717</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>3.213695917684731</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>25.981287</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>3.047722295925888</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>29.745972</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>2.285937290786801</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>15.263064</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>2.059524062784264</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>16.21698731471357</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>8.346018000000001</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0.7415997429581382</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>17.443635</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>2.046217160508375</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>16.678024</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>1.28168334852992</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>9.361081</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.263139011483708</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>20.06550253346151</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>2.752956</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.2446186267481168</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>2.226296</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.26115457469565</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>2.418431</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.1858531167882096</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>6.485536</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.8751268717770955</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>382.6599846543926</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>4.498517</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.3997234430710328</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>4.453797</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.5224505013330492</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>11.063922</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.8502472833012982</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>5.911644</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.7976886599318601</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-25.35693704604764</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>2.988343</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.2655343423259753</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>9.340386000000001</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.095669458743673</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>4.853913</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.3730165796207578</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>5.852315</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.7896830915138199</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>63.063733534988</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>HOUSEHOLD TYPE, ELECTRICAL AND NON-ELECTRICAL EQUIPMENT, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>7.211547</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.6407943766153551</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>10.144817</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.190032847833442</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>11.848815</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.9105652375432212</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>5.132556</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.6925622919217105</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-11.88858512551341</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>126.453014</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>11.23619942812032</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>93.484291</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>10.96612950696106</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>102.152208</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>7.850257561037499</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>47.923312</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>6.466540023177382</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-5.321982976994278</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1295,136 +2326,463 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>1425.495324</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>69.89330938867157</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>1362.209069</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>80.76893478962994</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>974.503454</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>78.5413328920355</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>454.607702</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>76.56835830494371</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-26.22430788416169</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>58.953202</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>2.890528167624387</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>68.125541</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>4.039341319740737</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>99.019713</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>7.98061844694787</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>47.058612</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>7.925956047593148</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-22.53775638561375</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>332.151168</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>16.28566853778934</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>96.207173</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>5.704374650828028</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>27.83346</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>2.243272754369483</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>19.802009</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>3.335199367717092</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>29.10369723951489</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>27.509729</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>1.348826592289482</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>22.284568</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>1.321310260346735</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>20.309902</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>1.636902124296234</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>18.02944</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>3.036650316050924</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>68.57613351569667</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>1.660927</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>0.1338645028716028</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>16.433254</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>2.767808980913723</v>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>56.929959</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>2.791326755605259</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>50.424792</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>2.989817664199278</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>18.016224</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>1.452040257870117</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>13.772736</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>2.319705056135185</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>13.16326009117981</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>5.377775</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>0.4334285473897009</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>7.268731</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>1.224252904607084</v>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>741</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>HEATING AND COOLING EQUIPMENT AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>4.500629</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.3627338610875245</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>3.776526</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.6360701647679868</v>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>26.949575</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>1.32136174118254</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>26.148816</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>1.550431620515097</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>22.533603</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>1.816124106297903</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>2.798666</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.4713718226090758</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-84.15975797251495</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>EQUIPMENT FOR DISTRIBUTING ELECTRICITY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>17.220219</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.8443227235080573</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>23.446639</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1.390212486118013</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>13.226309</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>1.065991027366769</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>2.577065</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.4340481593845275</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-39.80877564514746</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>94.321269</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>4.624656093329365</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>37.704144</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>2.235577208622165</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>53.77038</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>4.333691479467293</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>7.603154</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>1.280578875277538</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-63.57052769247421</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
